--- a/data/pca/factorExposure/factorExposure_2015-05-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-05-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01989772044339569</v>
+        <v>0.0117755103210092</v>
       </c>
       <c r="C2">
-        <v>0.02189932035957834</v>
+        <v>-0.05306889165539558</v>
       </c>
       <c r="D2">
-        <v>-0.1058670216476941</v>
+        <v>-0.1264108521786018</v>
       </c>
       <c r="E2">
-        <v>-0.01419694961806926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02619901884478246</v>
+      </c>
+      <c r="F2">
+        <v>0.03214481092602423</v>
+      </c>
+      <c r="G2">
+        <v>-0.117574119072442</v>
+      </c>
+      <c r="H2">
+        <v>-0.08938893627267999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04291241178378018</v>
+        <v>0.01764438379702353</v>
       </c>
       <c r="C4">
-        <v>0.0725180894340501</v>
+        <v>-0.1070933900417792</v>
       </c>
       <c r="D4">
-        <v>-0.1254324951487113</v>
+        <v>-0.1324801353453998</v>
       </c>
       <c r="E4">
-        <v>-0.09202487874114704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01420806267160514</v>
+      </c>
+      <c r="F4">
+        <v>0.092092052140261</v>
+      </c>
+      <c r="G4">
+        <v>-0.001701410505171336</v>
+      </c>
+      <c r="H4">
+        <v>-0.05115641063662919</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02104964135552689</v>
+        <v>0.02796747023197834</v>
       </c>
       <c r="C6">
-        <v>0.01169341049554841</v>
+        <v>-0.03557949237946315</v>
       </c>
       <c r="D6">
-        <v>-0.1385142781632202</v>
+        <v>-0.1224721354322873</v>
       </c>
       <c r="E6">
-        <v>-0.04548033604814365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06435613058110411</v>
+      </c>
+      <c r="F6">
+        <v>0.04554078566495941</v>
+      </c>
+      <c r="G6">
+        <v>0.01263826400914188</v>
+      </c>
+      <c r="H6">
+        <v>-0.04207305887220238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.002199494078134454</v>
+        <v>0.00832317707002328</v>
       </c>
       <c r="C7">
-        <v>0.02272039373251819</v>
+        <v>-0.03800138432866081</v>
       </c>
       <c r="D7">
-        <v>-0.1095095657900047</v>
+        <v>-0.09499561004202271</v>
       </c>
       <c r="E7">
-        <v>-0.01051890075379767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05592819236329177</v>
+      </c>
+      <c r="F7">
+        <v>0.009707659145908605</v>
+      </c>
+      <c r="G7">
+        <v>0.01777752027939009</v>
+      </c>
+      <c r="H7">
+        <v>-0.07540300369082462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.002698318452444634</v>
+        <v>-0.008469046472943611</v>
       </c>
       <c r="C8">
-        <v>0.02653827651947991</v>
+        <v>-0.03687742754509909</v>
       </c>
       <c r="D8">
-        <v>-0.07817043231673571</v>
+        <v>-0.07416208473092571</v>
       </c>
       <c r="E8">
-        <v>-0.02548818941271785</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04103886547221876</v>
+      </c>
+      <c r="F8">
+        <v>0.04808826152691179</v>
+      </c>
+      <c r="G8">
+        <v>-0.05935891115097115</v>
+      </c>
+      <c r="H8">
+        <v>-0.01370107850774596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0349141438253208</v>
+        <v>0.01257648854980971</v>
       </c>
       <c r="C9">
-        <v>0.06197096496260163</v>
+        <v>-0.08853294925972387</v>
       </c>
       <c r="D9">
-        <v>-0.1275912128914886</v>
+        <v>-0.1139495451175995</v>
       </c>
       <c r="E9">
-        <v>-0.07587332640526351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01530981931030566</v>
+      </c>
+      <c r="F9">
+        <v>0.06109548924652661</v>
+      </c>
+      <c r="G9">
+        <v>0.01961176345010021</v>
+      </c>
+      <c r="H9">
+        <v>-0.05943112482490003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1773585018084107</v>
+        <v>0.2419045368852809</v>
       </c>
       <c r="C10">
-        <v>-0.1664499296015773</v>
+        <v>0.08795489293240706</v>
       </c>
       <c r="D10">
-        <v>0.002348757529992316</v>
+        <v>0.004486460927264932</v>
       </c>
       <c r="E10">
-        <v>-0.04350107163332513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01059586605283125</v>
+      </c>
+      <c r="F10">
+        <v>0.04255840471719106</v>
+      </c>
+      <c r="G10">
+        <v>-0.0003470405021889272</v>
+      </c>
+      <c r="H10">
+        <v>0.0328126348665992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01916350465239365</v>
+        <v>0.009418191804451352</v>
       </c>
       <c r="C11">
-        <v>0.04199445948735925</v>
+        <v>-0.057652880118911</v>
       </c>
       <c r="D11">
-        <v>-0.0456116006710096</v>
+        <v>-0.04069300936573225</v>
       </c>
       <c r="E11">
-        <v>0.01620016692331263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02069901921766088</v>
+      </c>
+      <c r="F11">
+        <v>-0.01487604020961668</v>
+      </c>
+      <c r="G11">
+        <v>0.01509651504822265</v>
+      </c>
+      <c r="H11">
+        <v>-0.04761039636981878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01902000202867746</v>
+        <v>0.009552249123262555</v>
       </c>
       <c r="C12">
-        <v>0.04133266099253756</v>
+        <v>-0.05070303703082642</v>
       </c>
       <c r="D12">
-        <v>-0.06018646770769307</v>
+        <v>-0.04567510481005466</v>
       </c>
       <c r="E12">
-        <v>0.004073611673401573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01624701662741512</v>
+      </c>
+      <c r="F12">
+        <v>-0.01707046523352088</v>
+      </c>
+      <c r="G12">
+        <v>0.03419168642925545</v>
+      </c>
+      <c r="H12">
+        <v>-0.06385095492981677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.003750119618234866</v>
+        <v>-0.002532946115573321</v>
       </c>
       <c r="C13">
-        <v>0.02296706124829336</v>
+        <v>-0.04825263157028615</v>
       </c>
       <c r="D13">
-        <v>-0.1370158037665521</v>
+        <v>-0.1454539669705264</v>
       </c>
       <c r="E13">
-        <v>-0.04227714513517066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04313806115849455</v>
+      </c>
+      <c r="F13">
+        <v>0.03389148979445374</v>
+      </c>
+      <c r="G13">
+        <v>-0.01252578046620485</v>
+      </c>
+      <c r="H13">
+        <v>-0.0741058346074793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.005707994542958884</v>
+        <v>0.001434305037018963</v>
       </c>
       <c r="C14">
-        <v>0.01594457035408324</v>
+        <v>-0.03135705472024822</v>
       </c>
       <c r="D14">
-        <v>-0.09294668241176587</v>
+        <v>-0.09844827755765051</v>
       </c>
       <c r="E14">
-        <v>-0.01688901446291572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05278508190756643</v>
+      </c>
+      <c r="F14">
+        <v>0.03531556969413203</v>
+      </c>
+      <c r="G14">
+        <v>0.0008360598722619347</v>
+      </c>
+      <c r="H14">
+        <v>-0.1325681982003402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003146060178946795</v>
+        <v>-0.002589876641532448</v>
       </c>
       <c r="C15">
-        <v>0.01081251747997233</v>
+        <v>-0.02718972864594646</v>
       </c>
       <c r="D15">
-        <v>-0.03306141724641843</v>
+        <v>-0.05942643709466146</v>
       </c>
       <c r="E15">
-        <v>0.001502232838863536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01251942847716707</v>
+      </c>
+      <c r="F15">
+        <v>0.007330870090914063</v>
+      </c>
+      <c r="G15">
+        <v>-0.01262817743136646</v>
+      </c>
+      <c r="H15">
+        <v>-0.04191298547737689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01805434345340139</v>
+        <v>0.008911960058710314</v>
       </c>
       <c r="C16">
-        <v>0.03734945666957838</v>
+        <v>-0.05076144709291864</v>
       </c>
       <c r="D16">
-        <v>-0.05349725378477685</v>
+        <v>-0.04394984581863307</v>
       </c>
       <c r="E16">
-        <v>0.005891214536522259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0232100490525124</v>
+      </c>
+      <c r="F16">
+        <v>-0.009006954005757017</v>
+      </c>
+      <c r="G16">
+        <v>0.02536885614847171</v>
+      </c>
+      <c r="H16">
+        <v>-0.04426733495369074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.003184584065258279</v>
+        <v>-0.0003646876975063827</v>
       </c>
       <c r="C19">
-        <v>0.01838686775257347</v>
+        <v>-0.01728392565052318</v>
       </c>
       <c r="D19">
-        <v>-0.09786046735404194</v>
+        <v>-0.06201189616223119</v>
       </c>
       <c r="E19">
-        <v>-0.04996183746837552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01062942614176678</v>
+      </c>
+      <c r="F19">
+        <v>0.01630757028554115</v>
+      </c>
+      <c r="G19">
+        <v>-0.01021517805290854</v>
+      </c>
+      <c r="H19">
+        <v>-0.05648684588545725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002540703145788763</v>
+        <v>0.004238522659867309</v>
       </c>
       <c r="C20">
-        <v>0.025522501768152</v>
+        <v>-0.04283034877434032</v>
       </c>
       <c r="D20">
-        <v>-0.08179021805358645</v>
+        <v>-0.08899975801876446</v>
       </c>
       <c r="E20">
-        <v>-0.03577400410515678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02554067681372658</v>
+      </c>
+      <c r="F20">
+        <v>0.02648227489161696</v>
+      </c>
+      <c r="G20">
+        <v>0.01527652528476575</v>
+      </c>
+      <c r="H20">
+        <v>-0.05531838422622256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005586423107984635</v>
+        <v>0.003932719498021025</v>
       </c>
       <c r="C21">
-        <v>0.02716680565477866</v>
+        <v>-0.04553408493979378</v>
       </c>
       <c r="D21">
-        <v>-0.1558776014081958</v>
+        <v>-0.1280634284982911</v>
       </c>
       <c r="E21">
-        <v>-0.0876070330102721</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.033357270394677</v>
+      </c>
+      <c r="F21">
+        <v>0.09745386466529167</v>
+      </c>
+      <c r="G21">
+        <v>-0.008247014468313935</v>
+      </c>
+      <c r="H21">
+        <v>-0.1956652011358901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0005270195444235016</v>
+        <v>-0.01345565822059987</v>
       </c>
       <c r="C22">
-        <v>0.0636625873340881</v>
+        <v>-0.08847733918805505</v>
       </c>
       <c r="D22">
-        <v>-0.2556400676178036</v>
+        <v>-0.2566868548340722</v>
       </c>
       <c r="E22">
-        <v>0.001865318676797974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.06689800817105139</v>
+      </c>
+      <c r="F22">
+        <v>0.005477436948174518</v>
+      </c>
+      <c r="G22">
+        <v>-0.4124266195304137</v>
+      </c>
+      <c r="H22">
+        <v>0.370242468078629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0002459201230465816</v>
+        <v>-0.0102451247060339</v>
       </c>
       <c r="C23">
-        <v>0.06416061605696474</v>
+        <v>-0.09017883106622489</v>
       </c>
       <c r="D23">
-        <v>-0.2550337320087718</v>
+        <v>-0.2592955058958739</v>
       </c>
       <c r="E23">
-        <v>0.001752819663452011</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.06213302392431513</v>
+      </c>
+      <c r="F23">
+        <v>0.008735693610903053</v>
+      </c>
+      <c r="G23">
+        <v>-0.399746653776835</v>
+      </c>
+      <c r="H23">
+        <v>0.3558217077354653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02339850556597413</v>
+        <v>0.009340676159212918</v>
       </c>
       <c r="C24">
-        <v>0.05722795092159842</v>
+        <v>-0.06712203383037625</v>
       </c>
       <c r="D24">
-        <v>-0.06222398037678976</v>
+        <v>-0.04650045481901124</v>
       </c>
       <c r="E24">
-        <v>0.002584060259295323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02980376547849072</v>
+      </c>
+      <c r="F24">
+        <v>-0.004846652957760178</v>
+      </c>
+      <c r="G24">
+        <v>0.01532950488478786</v>
+      </c>
+      <c r="H24">
+        <v>-0.07083497025641049</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02442703410007414</v>
+        <v>0.01350084384518073</v>
       </c>
       <c r="C25">
-        <v>0.04875891654848746</v>
+        <v>-0.06144068544228167</v>
       </c>
       <c r="D25">
-        <v>-0.05855177595458667</v>
+        <v>-0.04887038362721184</v>
       </c>
       <c r="E25">
-        <v>-0.004053527917219342</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0151865926521414</v>
+      </c>
+      <c r="F25">
+        <v>-0.006351909963024859</v>
+      </c>
+      <c r="G25">
+        <v>0.01644418484694771</v>
+      </c>
+      <c r="H25">
+        <v>-0.03534472915714252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006336051022454024</v>
+        <v>0.01430017017665408</v>
       </c>
       <c r="C26">
-        <v>0.01500208461780594</v>
+        <v>-0.02730419427594922</v>
       </c>
       <c r="D26">
-        <v>-0.08624046367087236</v>
+        <v>-0.06814666769394201</v>
       </c>
       <c r="E26">
-        <v>-0.02492514976499754</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04516513736680435</v>
+      </c>
+      <c r="F26">
+        <v>0.0434920125629564</v>
+      </c>
+      <c r="G26">
+        <v>0.01362365690997027</v>
+      </c>
+      <c r="H26">
+        <v>-0.09903122972112437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2626162947499898</v>
+        <v>0.3210592389392222</v>
       </c>
       <c r="C28">
-        <v>-0.1939481719372137</v>
+        <v>0.08787038035441871</v>
       </c>
       <c r="D28">
-        <v>-0.01472504070710918</v>
+        <v>0.01762987338366539</v>
       </c>
       <c r="E28">
-        <v>-0.05698044731533491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05053457835555981</v>
+      </c>
+      <c r="F28">
+        <v>0.04552054563414703</v>
+      </c>
+      <c r="G28">
+        <v>-0.05150564198996527</v>
+      </c>
+      <c r="H28">
+        <v>0.002223895199450428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.002240597248738145</v>
+        <v>0.0003805258608822281</v>
       </c>
       <c r="C29">
-        <v>0.0207560244914344</v>
+        <v>-0.03688389025921011</v>
       </c>
       <c r="D29">
-        <v>-0.09519979998938781</v>
+        <v>-0.1026474333819582</v>
       </c>
       <c r="E29">
-        <v>-0.02332267681945231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06026973703666066</v>
+      </c>
+      <c r="F29">
+        <v>0.03972510816142617</v>
+      </c>
+      <c r="G29">
+        <v>0.01389690973269989</v>
+      </c>
+      <c r="H29">
+        <v>-0.1369067240538016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02284147295391052</v>
+        <v>0.01374397798674462</v>
       </c>
       <c r="C30">
-        <v>0.05954095281194637</v>
+        <v>-0.08821157896175175</v>
       </c>
       <c r="D30">
-        <v>-0.164767325884482</v>
+        <v>-0.1455906141249201</v>
       </c>
       <c r="E30">
-        <v>-0.03363799281497608</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05802470661963285</v>
+      </c>
+      <c r="F30">
+        <v>0.02721501763729561</v>
+      </c>
+      <c r="G30">
+        <v>-0.01785958136628269</v>
+      </c>
+      <c r="H30">
+        <v>-0.05141574850466875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03621501243011242</v>
+        <v>0.00754639938841014</v>
       </c>
       <c r="C31">
-        <v>0.08503392703788354</v>
+        <v>-0.09448768008815217</v>
       </c>
       <c r="D31">
-        <v>-0.06738907678053283</v>
+        <v>-0.03872703214375778</v>
       </c>
       <c r="E31">
-        <v>-0.01732748093188485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02024600308136575</v>
+      </c>
+      <c r="F31">
+        <v>0.01403662659932414</v>
+      </c>
+      <c r="G31">
+        <v>0.005248903127729687</v>
+      </c>
+      <c r="H31">
+        <v>-0.04748893393861128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01682017375157897</v>
+        <v>0.008850770549321272</v>
       </c>
       <c r="C32">
-        <v>0.0332510537416445</v>
+        <v>-0.04902454811592265</v>
       </c>
       <c r="D32">
-        <v>-0.0920685807467406</v>
+        <v>-0.1059276345608721</v>
       </c>
       <c r="E32">
-        <v>-0.07227972166189268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004295098251084067</v>
+      </c>
+      <c r="F32">
+        <v>0.05353335227986471</v>
+      </c>
+      <c r="G32">
+        <v>-0.007314582857680557</v>
+      </c>
+      <c r="H32">
+        <v>-0.05725738635491488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.009145549581501346</v>
+        <v>0.005527054943983648</v>
       </c>
       <c r="C33">
-        <v>0.04082772616810907</v>
+        <v>-0.06083742607194072</v>
       </c>
       <c r="D33">
-        <v>-0.1372008707157681</v>
+        <v>-0.1203508410886912</v>
       </c>
       <c r="E33">
-        <v>-0.04858836887860646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02999378746663481</v>
+      </c>
+      <c r="F33">
+        <v>0.0270163958240264</v>
+      </c>
+      <c r="G33">
+        <v>0.008650731452383043</v>
+      </c>
+      <c r="H33">
+        <v>-0.06550044225834412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02070557744178851</v>
+        <v>0.007032552365533931</v>
       </c>
       <c r="C34">
-        <v>0.05872621415202973</v>
+        <v>-0.06221652408101214</v>
       </c>
       <c r="D34">
-        <v>-0.05334992343359506</v>
+        <v>-0.02778491961711424</v>
       </c>
       <c r="E34">
-        <v>0.04458190507832709</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02939682707467243</v>
+      </c>
+      <c r="F34">
+        <v>-0.04019958204847059</v>
+      </c>
+      <c r="G34">
+        <v>0.01867048710288512</v>
+      </c>
+      <c r="H34">
+        <v>-0.05125138008273651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.002287960947347156</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01107503078056781</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03320153333658117</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.005015918319795976</v>
+      </c>
+      <c r="F35">
+        <v>0.01762379183143057</v>
+      </c>
+      <c r="G35">
+        <v>0.008431548599078799</v>
+      </c>
+      <c r="H35">
+        <v>-0.05280955793568674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006751629664911875</v>
+        <v>0.01086008441985052</v>
       </c>
       <c r="C36">
-        <v>0.006105718497290262</v>
+        <v>-0.02247239461128818</v>
       </c>
       <c r="D36">
-        <v>-0.08496755568993995</v>
+        <v>-0.07551375170806755</v>
       </c>
       <c r="E36">
-        <v>-0.04976636765328722</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02949197312013051</v>
+      </c>
+      <c r="F36">
+        <v>0.04981346186275775</v>
+      </c>
+      <c r="G36">
+        <v>0.004108118504382452</v>
+      </c>
+      <c r="H36">
+        <v>-0.06659469894820144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005910583823275557</v>
+        <v>0.01172134935704893</v>
       </c>
       <c r="C38">
-        <v>0.006609597421625735</v>
+        <v>-0.02373011064251146</v>
       </c>
       <c r="D38">
-        <v>-0.08996340282451504</v>
+        <v>-0.0868381268568877</v>
       </c>
       <c r="E38">
-        <v>-0.01443074505788731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.007022444678348574</v>
+      </c>
+      <c r="F38">
+        <v>0.00130395852605127</v>
+      </c>
+      <c r="G38">
+        <v>-0.01589113235048373</v>
+      </c>
+      <c r="H38">
+        <v>-0.06900590580187099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01514040319086245</v>
+        <v>0.002807157526287622</v>
       </c>
       <c r="C39">
-        <v>0.05765333404365457</v>
+        <v>-0.07752226665414809</v>
       </c>
       <c r="D39">
-        <v>-0.1132328884791389</v>
+        <v>-0.09168376124144836</v>
       </c>
       <c r="E39">
-        <v>0.00770208108958084</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05480605086338535</v>
+      </c>
+      <c r="F39">
+        <v>-0.005352880601267933</v>
+      </c>
+      <c r="G39">
+        <v>0.02370590822039427</v>
+      </c>
+      <c r="H39">
+        <v>-0.1007104282550411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01549392134813652</v>
+        <v>0.01332337388342453</v>
       </c>
       <c r="C40">
-        <v>0.02332887107939183</v>
+        <v>-0.03764605509636262</v>
       </c>
       <c r="D40">
-        <v>-0.1138665306089393</v>
+        <v>-0.09423455864679835</v>
       </c>
       <c r="E40">
-        <v>0.002964983250328034</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04315287913560754</v>
+      </c>
+      <c r="F40">
+        <v>-0.013056809778922</v>
+      </c>
+      <c r="G40">
+        <v>-0.05884445136812797</v>
+      </c>
+      <c r="H40">
+        <v>-0.1063492913222849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009595451190363589</v>
+        <v>0.01552577265969086</v>
       </c>
       <c r="C41">
-        <v>0.004222683624181463</v>
+        <v>-0.0195911906454002</v>
       </c>
       <c r="D41">
-        <v>-0.04214025653086302</v>
+        <v>-0.04745670006136224</v>
       </c>
       <c r="E41">
-        <v>-0.03368829667532278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.005918603841613038</v>
+      </c>
+      <c r="F41">
+        <v>0.02456017007952447</v>
+      </c>
+      <c r="G41">
+        <v>0.0006090010117808425</v>
+      </c>
+      <c r="H41">
+        <v>-0.04618398373288844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.001508572303934128</v>
+        <v>0.008152068220760754</v>
       </c>
       <c r="C43">
-        <v>0.004388977932583173</v>
+        <v>-0.01603342303659315</v>
       </c>
       <c r="D43">
-        <v>-0.0542997076236847</v>
+        <v>-0.0528938840663582</v>
       </c>
       <c r="E43">
-        <v>-0.02540090573438987</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01051325585035939</v>
+      </c>
+      <c r="F43">
+        <v>0.02102261504789505</v>
+      </c>
+      <c r="G43">
+        <v>-0.001586906496417066</v>
+      </c>
+      <c r="H43">
+        <v>-0.0563235276950709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01728613822554996</v>
+        <v>0.0118088562586455</v>
       </c>
       <c r="C44">
-        <v>0.02570241444395905</v>
+        <v>-0.0499211731600084</v>
       </c>
       <c r="D44">
-        <v>-0.09247965542079045</v>
+        <v>-0.1015846405656204</v>
       </c>
       <c r="E44">
-        <v>-0.04926901624830581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03805262458868327</v>
+      </c>
+      <c r="F44">
+        <v>0.03569433771890638</v>
+      </c>
+      <c r="G44">
+        <v>-0.02861476755993813</v>
+      </c>
+      <c r="H44">
+        <v>-0.05353825341348188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1864,97 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004947878402590975</v>
+        <v>-0.0006082684514695523</v>
       </c>
       <c r="C46">
-        <v>0.02900746917717005</v>
+        <v>-0.04124646138349589</v>
       </c>
       <c r="D46">
-        <v>-0.08421070555283439</v>
+        <v>-0.07102547161136641</v>
       </c>
       <c r="E46">
-        <v>-0.02159859506709196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04371766188788356</v>
+      </c>
+      <c r="F46">
+        <v>0.03282850320999682</v>
+      </c>
+      <c r="G46">
+        <v>-0.0005168433922109254</v>
+      </c>
+      <c r="H46">
+        <v>-0.1294174583072814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07687484711044666</v>
+        <v>0.031064528963598</v>
       </c>
       <c r="C47">
-        <v>0.1077663692301554</v>
+        <v>-0.1268380797311942</v>
       </c>
       <c r="D47">
-        <v>-0.05897531035466697</v>
+        <v>-0.02435149940804526</v>
       </c>
       <c r="E47">
-        <v>-0.03522107324645208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00573490729434319</v>
+      </c>
+      <c r="F47">
+        <v>-0.004297046365279934</v>
+      </c>
+      <c r="G47">
+        <v>0.05186169406754053</v>
+      </c>
+      <c r="H47">
+        <v>-0.05420894706280029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.008316081511326606</v>
+        <v>0.01254621229793871</v>
       </c>
       <c r="C48">
-        <v>0.0154689191373107</v>
+        <v>-0.03270809440627786</v>
       </c>
       <c r="D48">
-        <v>-0.09040970984375613</v>
+        <v>-0.08156097468811126</v>
       </c>
       <c r="E48">
-        <v>-0.06162869182904842</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02356753295615664</v>
+      </c>
+      <c r="F48">
+        <v>0.05918174392921152</v>
+      </c>
+      <c r="G48">
+        <v>0.005228697314024209</v>
+      </c>
+      <c r="H48">
+        <v>-0.108888523612664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1968,71 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03375841729682962</v>
+        <v>0.01174197349759918</v>
       </c>
       <c r="C50">
-        <v>0.05899415083473204</v>
+        <v>-0.07636206153895997</v>
       </c>
       <c r="D50">
-        <v>-0.06416325147992731</v>
+        <v>-0.04909313199940995</v>
       </c>
       <c r="E50">
-        <v>-0.01272773215280599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01411244428253002</v>
+      </c>
+      <c r="F50">
+        <v>0.007598705362009591</v>
+      </c>
+      <c r="G50">
+        <v>-0.003785461624970198</v>
+      </c>
+      <c r="H50">
+        <v>-0.03718316179708001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.002336775416177368</v>
+        <v>-0.0009439746954430113</v>
       </c>
       <c r="C51">
-        <v>0.004930269214699906</v>
+        <v>-0.01706094483632784</v>
       </c>
       <c r="D51">
-        <v>-0.05541130881693506</v>
+        <v>-0.05594030418354408</v>
       </c>
       <c r="E51">
-        <v>-0.008031031745895662</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.0391272905505988</v>
+      </c>
+      <c r="F51">
+        <v>0.04109534243540321</v>
+      </c>
+      <c r="G51">
+        <v>-0.02035740287295067</v>
+      </c>
+      <c r="H51">
+        <v>-0.05445158786379439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1058899060118648</v>
+        <v>0.05255102005944243</v>
       </c>
       <c r="C53">
-        <v>0.1269681347879506</v>
+        <v>-0.1576716073869997</v>
       </c>
       <c r="D53">
-        <v>-0.004945785076637608</v>
+        <v>0.0242917450122018</v>
       </c>
       <c r="E53">
-        <v>-0.06012666607782977</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03052715802474832</v>
+      </c>
+      <c r="F53">
+        <v>0.04839859649249145</v>
+      </c>
+      <c r="G53">
+        <v>0.002836749655756563</v>
+      </c>
+      <c r="H53">
+        <v>-0.009594056064094355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00973275975288395</v>
+        <v>0.009120902453480396</v>
       </c>
       <c r="C54">
-        <v>0.02041741485708665</v>
+        <v>-0.03784463186497641</v>
       </c>
       <c r="D54">
-        <v>-0.09224018884692844</v>
+        <v>-0.07760403614349601</v>
       </c>
       <c r="E54">
-        <v>-0.01148980942412796</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01762408244152723</v>
+      </c>
+      <c r="F54">
+        <v>0.002896753470696439</v>
+      </c>
+      <c r="G54">
+        <v>-0.01092668154272938</v>
+      </c>
+      <c r="H54">
+        <v>-0.08224819159182425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09307970767316451</v>
+        <v>0.03998066145531076</v>
       </c>
       <c r="C55">
-        <v>0.1077225441012319</v>
+        <v>-0.1316021819603191</v>
       </c>
       <c r="D55">
-        <v>-0.007080040482156658</v>
+        <v>0.03219830288953827</v>
       </c>
       <c r="E55">
-        <v>-0.009567881396544688</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004460807841960232</v>
+      </c>
+      <c r="F55">
+        <v>0.01222112302817143</v>
+      </c>
+      <c r="G55">
+        <v>-0.001021445736055329</v>
+      </c>
+      <c r="H55">
+        <v>-0.01711064784102345</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1311971596742285</v>
+        <v>0.05463543182776472</v>
       </c>
       <c r="C56">
-        <v>0.1454077056845857</v>
+        <v>-0.1898387913491049</v>
       </c>
       <c r="D56">
-        <v>-0.00130222346651652</v>
+        <v>0.0330640243242277</v>
       </c>
       <c r="E56">
-        <v>-0.01000734541120175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03172327968306047</v>
+      </c>
+      <c r="F56">
+        <v>0.01441555816916292</v>
+      </c>
+      <c r="G56">
+        <v>-0.04985541838968909</v>
+      </c>
+      <c r="H56">
+        <v>-0.01367462371566269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006521493238608562</v>
+        <v>0.006399894320816594</v>
       </c>
       <c r="C58">
-        <v>0.009980902739359579</v>
+        <v>-0.05620782725376793</v>
       </c>
       <c r="D58">
-        <v>-0.2151829488257472</v>
+        <v>-0.2815250829655225</v>
       </c>
       <c r="E58">
-        <v>-0.09139876137033648</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02335066022591717</v>
+      </c>
+      <c r="F58">
+        <v>0.1059361279151083</v>
+      </c>
+      <c r="G58">
+        <v>-0.1591313724207713</v>
+      </c>
+      <c r="H58">
+        <v>0.100225875304728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1842221054583279</v>
+        <v>0.2541684745197247</v>
       </c>
       <c r="C59">
-        <v>-0.1446314128926154</v>
+        <v>0.05839236491598995</v>
       </c>
       <c r="D59">
-        <v>-0.0447179743487798</v>
+        <v>-0.05679533719921905</v>
       </c>
       <c r="E59">
-        <v>-0.03863630683098568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01889754598351767</v>
+      </c>
+      <c r="F59">
+        <v>0.02324815404028496</v>
+      </c>
+      <c r="G59">
+        <v>-0.007592808270912401</v>
+      </c>
+      <c r="H59">
+        <v>-0.003195177553780389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1814902330850203</v>
+        <v>0.1462491256238632</v>
       </c>
       <c r="C60">
-        <v>0.1076852762620333</v>
+        <v>-0.1761795462692731</v>
       </c>
       <c r="D60">
-        <v>-0.2156398161623607</v>
+        <v>-0.08594988574948867</v>
       </c>
       <c r="E60">
-        <v>0.147526501589521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1638324879638993</v>
+      </c>
+      <c r="F60">
+        <v>-0.2211123384199573</v>
+      </c>
+      <c r="G60">
+        <v>0.2152901336138432</v>
+      </c>
+      <c r="H60">
+        <v>0.2398265452140144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02520629932184373</v>
+        <v>0.01083847706996709</v>
       </c>
       <c r="C61">
-        <v>0.05398633242057752</v>
+        <v>-0.07561019197202637</v>
       </c>
       <c r="D61">
-        <v>-0.09719631370977826</v>
+        <v>-0.07582793016117773</v>
       </c>
       <c r="E61">
-        <v>0.0001469233289240713</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03882021033445279</v>
+      </c>
+      <c r="F61">
+        <v>-0.0137130862913704</v>
+      </c>
+      <c r="G61">
+        <v>0.03807468727419374</v>
+      </c>
+      <c r="H61">
+        <v>-0.08688348105759054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.006303629646980515</v>
+        <v>0.007825246227640657</v>
       </c>
       <c r="C63">
-        <v>0.0245623343981425</v>
+        <v>-0.03708427009024436</v>
       </c>
       <c r="D63">
-        <v>-0.09838792629016328</v>
+        <v>-0.06813836465981703</v>
       </c>
       <c r="E63">
-        <v>-0.02154907133200152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06054366751292277</v>
+      </c>
+      <c r="F63">
+        <v>0.02564529384464202</v>
+      </c>
+      <c r="G63">
+        <v>0.006622936305523354</v>
+      </c>
+      <c r="H63">
+        <v>-0.06994797220747331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05408334378181669</v>
+        <v>0.01549924473275875</v>
       </c>
       <c r="C64">
-        <v>0.08455295355571416</v>
+        <v>-0.1047518832732914</v>
       </c>
       <c r="D64">
-        <v>-0.02953066479601913</v>
+        <v>-0.01357187645724877</v>
       </c>
       <c r="E64">
-        <v>-0.01499450570227381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02497112590104719</v>
+      </c>
+      <c r="F64">
+        <v>0.0172999371097018</v>
+      </c>
+      <c r="G64">
+        <v>0.05330223592693733</v>
+      </c>
+      <c r="H64">
+        <v>-0.07790360901258654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0247975464112792</v>
+        <v>0.02144742383033471</v>
       </c>
       <c r="C65">
-        <v>0.01487495072159388</v>
+        <v>-0.04387153807281241</v>
       </c>
       <c r="D65">
-        <v>-0.1138812279644269</v>
+        <v>-0.1138687899574063</v>
       </c>
       <c r="E65">
-        <v>-0.01370853728433639</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04577182364506235</v>
+      </c>
+      <c r="F65">
+        <v>-0.006124152200601087</v>
+      </c>
+      <c r="G65">
+        <v>0.03157885456996733</v>
+      </c>
+      <c r="H65">
+        <v>-0.0139523947139562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0198706767258962</v>
+        <v>0.0003854099900796713</v>
       </c>
       <c r="C66">
-        <v>0.06623669353042787</v>
+        <v>-0.09591206029792985</v>
       </c>
       <c r="D66">
-        <v>-0.1212528153394783</v>
+        <v>-0.1170746094515318</v>
       </c>
       <c r="E66">
-        <v>0.01047910057319309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04347064043395465</v>
+      </c>
+      <c r="F66">
+        <v>-0.01126284817456961</v>
+      </c>
+      <c r="G66">
+        <v>-0.003842976013219117</v>
+      </c>
+      <c r="H66">
+        <v>-0.06678865669194274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02370154233135777</v>
+        <v>0.02166775835647144</v>
       </c>
       <c r="C67">
-        <v>0.02003137966271564</v>
+        <v>-0.03508971776401396</v>
       </c>
       <c r="D67">
-        <v>-0.0477030377624944</v>
+        <v>-0.04099785349099256</v>
       </c>
       <c r="E67">
-        <v>0.01469495064853848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01216602000481274</v>
+      </c>
+      <c r="F67">
+        <v>-0.02726582494747836</v>
+      </c>
+      <c r="G67">
+        <v>0.0002024734925464519</v>
+      </c>
+      <c r="H67">
+        <v>-0.06938606604906938</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2067378849214805</v>
+        <v>0.2752193175610573</v>
       </c>
       <c r="C68">
-        <v>-0.1533448917591874</v>
+        <v>0.06564591033042767</v>
       </c>
       <c r="D68">
-        <v>-0.0306275706254392</v>
+        <v>-0.02680615912421814</v>
       </c>
       <c r="E68">
-        <v>-0.01026605448780039</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.003349407699487974</v>
+      </c>
+      <c r="F68">
+        <v>0.02553082954847929</v>
+      </c>
+      <c r="G68">
+        <v>-0.07124486042190953</v>
+      </c>
+      <c r="H68">
+        <v>0.04629743848784013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05320283688530328</v>
+        <v>0.01605987291968375</v>
       </c>
       <c r="C69">
-        <v>0.1162806883421256</v>
+        <v>-0.1184738753879062</v>
       </c>
       <c r="D69">
-        <v>-0.0759429090710223</v>
+        <v>-0.02719090039322407</v>
       </c>
       <c r="E69">
-        <v>-0.01994112630623011</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.008268240589385939</v>
+      </c>
+      <c r="F69">
+        <v>-0.008107346062630026</v>
+      </c>
+      <c r="G69">
+        <v>0.0283505805321979</v>
+      </c>
+      <c r="H69">
+        <v>-0.04295430925403135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2177730520107229</v>
+        <v>0.2766016473624539</v>
       </c>
       <c r="C71">
-        <v>-0.1756883397676313</v>
+        <v>0.0774851108878411</v>
       </c>
       <c r="D71">
-        <v>-0.01546987377055888</v>
+        <v>-0.01409192927616861</v>
       </c>
       <c r="E71">
-        <v>-0.01181203736937766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0009387515548349349</v>
+      </c>
+      <c r="F71">
+        <v>0.02033491182836135</v>
+      </c>
+      <c r="G71">
+        <v>-0.03876453291862792</v>
+      </c>
+      <c r="H71">
+        <v>-0.02097846573075414</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09981433889992271</v>
+        <v>0.05292972976771124</v>
       </c>
       <c r="C72">
-        <v>0.07958499523289982</v>
+        <v>-0.1263769748782854</v>
       </c>
       <c r="D72">
-        <v>-0.1087049451304421</v>
+        <v>-0.05630811383736446</v>
       </c>
       <c r="E72">
-        <v>0.03581111455701762</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.06823464707813753</v>
+      </c>
+      <c r="F72">
+        <v>-0.02449141532253451</v>
+      </c>
+      <c r="G72">
+        <v>0.03709335781284967</v>
+      </c>
+      <c r="H72">
+        <v>-0.04703368984993239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1697048315498337</v>
+        <v>0.1377300570083229</v>
       </c>
       <c r="C73">
-        <v>0.07223369717646033</v>
+        <v>-0.1506597577591544</v>
       </c>
       <c r="D73">
-        <v>-0.2821886578879749</v>
+        <v>-0.09151172887262092</v>
       </c>
       <c r="E73">
-        <v>0.2218995797168622</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2855898898405102</v>
+      </c>
+      <c r="F73">
+        <v>-0.3099657936622559</v>
+      </c>
+      <c r="G73">
+        <v>0.3927972137030284</v>
+      </c>
+      <c r="H73">
+        <v>0.1916999267263371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1050277922877681</v>
+        <v>0.04736533639973719</v>
       </c>
       <c r="C74">
-        <v>0.1174307785628051</v>
+        <v>-0.1454685873213923</v>
       </c>
       <c r="D74">
-        <v>0.02016732995676209</v>
+        <v>0.04387602532404213</v>
       </c>
       <c r="E74">
-        <v>-0.03780610393086636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01239887359565122</v>
+      </c>
+      <c r="F74">
+        <v>0.03524332921086282</v>
+      </c>
+      <c r="G74">
+        <v>0.006640389744625933</v>
+      </c>
+      <c r="H74">
+        <v>0.0114457593078162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2275654478135822</v>
+        <v>0.1024223745796329</v>
       </c>
       <c r="C75">
-        <v>0.2047684221390142</v>
+        <v>-0.2690947963840257</v>
       </c>
       <c r="D75">
-        <v>0.1035731770041611</v>
+        <v>0.1350225215743966</v>
       </c>
       <c r="E75">
-        <v>0.03315313648473694</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09133682993230018</v>
+      </c>
+      <c r="F75">
+        <v>-0.02802886893491746</v>
+      </c>
+      <c r="G75">
+        <v>-0.09639710993165278</v>
+      </c>
+      <c r="H75">
+        <v>-0.02711636564939417</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1376790317239946</v>
+        <v>0.05919920271559691</v>
       </c>
       <c r="C76">
-        <v>0.1417224564327362</v>
+        <v>-0.183192078176863</v>
       </c>
       <c r="D76">
-        <v>-0.009809101234603792</v>
+        <v>0.04281354500883375</v>
       </c>
       <c r="E76">
-        <v>-0.009931225402536194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02365622820445224</v>
+      </c>
+      <c r="F76">
+        <v>0.002314181023172845</v>
+      </c>
+      <c r="G76">
+        <v>-0.03226244768281828</v>
+      </c>
+      <c r="H76">
+        <v>-0.03908922127814607</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.020287293159451</v>
+        <v>0.0007832558307524345</v>
       </c>
       <c r="C77">
-        <v>0.06672854744896595</v>
+        <v>-0.1069648027324664</v>
       </c>
       <c r="D77">
-        <v>0.02140949264438149</v>
+        <v>-0.3313629803025417</v>
       </c>
       <c r="E77">
-        <v>-0.2265260432525244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.8381787953314749</v>
+      </c>
+      <c r="F77">
+        <v>-0.2173988241668616</v>
+      </c>
+      <c r="G77">
+        <v>0.1924871123059527</v>
+      </c>
+      <c r="H77">
+        <v>0.159047997297099</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.02629467486401741</v>
+        <v>0.01723785595894408</v>
       </c>
       <c r="C78">
-        <v>0.07002931116689988</v>
+        <v>-0.09200984045141873</v>
       </c>
       <c r="D78">
-        <v>-0.1423662426715037</v>
+        <v>-0.1090023067721285</v>
       </c>
       <c r="E78">
-        <v>-0.04887534961186996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0689099192377752</v>
+      </c>
+      <c r="F78">
+        <v>0.04241564287184064</v>
+      </c>
+      <c r="G78">
+        <v>-0.03301027064547311</v>
+      </c>
+      <c r="H78">
+        <v>-0.03390164613896732</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.09431184084708452</v>
+        <v>0.03361718082862303</v>
       </c>
       <c r="C79">
-        <v>0.1777861385928773</v>
+        <v>-0.1944240581023441</v>
       </c>
       <c r="D79">
-        <v>0.1499705157431426</v>
+        <v>0.07818045319423016</v>
       </c>
       <c r="E79">
-        <v>-0.797672224602444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05515464458876654</v>
+      </c>
+      <c r="F79">
+        <v>0.7817440590073026</v>
+      </c>
+      <c r="G79">
+        <v>0.3599403471592271</v>
+      </c>
+      <c r="H79">
+        <v>0.3369715168794009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003134140658516215</v>
+        <v>0.003296168826411461</v>
       </c>
       <c r="C80">
-        <v>0.04519976832066086</v>
+        <v>-0.04647363989591161</v>
       </c>
       <c r="D80">
-        <v>-0.05380514825774677</v>
+        <v>-0.04156148309115444</v>
       </c>
       <c r="E80">
-        <v>0.003757945485594144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04572361980805597</v>
+      </c>
+      <c r="F80">
+        <v>0.004512419342025896</v>
+      </c>
+      <c r="G80">
+        <v>-0.007843739899287038</v>
+      </c>
+      <c r="H80">
+        <v>-0.03076293948335813</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1177458338293631</v>
+        <v>0.04116759823988657</v>
       </c>
       <c r="C81">
-        <v>0.1373722504381622</v>
+        <v>-0.1679921956777096</v>
       </c>
       <c r="D81">
-        <v>0.07228423227651749</v>
+        <v>0.07849455015073674</v>
       </c>
       <c r="E81">
-        <v>-0.05269146226154942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05061866809621664</v>
+      </c>
+      <c r="F81">
+        <v>0.06456979561202594</v>
+      </c>
+      <c r="G81">
+        <v>-0.04742268066357427</v>
+      </c>
+      <c r="H81">
+        <v>-0.07979820018034008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2452768059215685</v>
+        <v>0.08645825277465562</v>
       </c>
       <c r="C82">
-        <v>0.3026428703418628</v>
+        <v>-0.3212034018593905</v>
       </c>
       <c r="D82">
-        <v>0.2018116330249052</v>
+        <v>0.2445602046237963</v>
       </c>
       <c r="E82">
-        <v>0.1580289126258334</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.06494775819179252</v>
+      </c>
+      <c r="F82">
+        <v>-0.1104379545804854</v>
+      </c>
+      <c r="G82">
+        <v>-0.09047452874595067</v>
+      </c>
+      <c r="H82">
+        <v>-0.1149439188085634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.008214551344623592</v>
+        <v>-0.01299245643786216</v>
       </c>
       <c r="C83">
-        <v>0.05019444160668755</v>
+        <v>-0.02513032993701105</v>
       </c>
       <c r="D83">
-        <v>-0.0001926985684143959</v>
+        <v>-0.03010830301756588</v>
       </c>
       <c r="E83">
-        <v>-0.0598235866645443</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07754871000233703</v>
+      </c>
+      <c r="F83">
+        <v>0.0725301956591007</v>
+      </c>
+      <c r="G83">
+        <v>-0.03010128772213467</v>
+      </c>
+      <c r="H83">
+        <v>-0.1030413242677446</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001410224533965747</v>
+        <v>-0.0007598022214884198</v>
       </c>
       <c r="C84">
-        <v>-0.0001126727242087499</v>
+        <v>-0.02070074585234967</v>
       </c>
       <c r="D84">
-        <v>-0.009494929839725467</v>
+        <v>-0.04826957221046185</v>
       </c>
       <c r="E84">
-        <v>0.001760369512612426</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.005179454643675014</v>
+      </c>
+      <c r="F84">
+        <v>0.02819411092783692</v>
+      </c>
+      <c r="G84">
+        <v>-0.04195729423513898</v>
+      </c>
+      <c r="H84">
+        <v>-0.02595175885216282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1385359077803209</v>
+        <v>0.05460310478686464</v>
       </c>
       <c r="C85">
-        <v>0.1418270318365465</v>
+        <v>-0.1832010770713275</v>
       </c>
       <c r="D85">
-        <v>0.04324066693548925</v>
+        <v>0.0943523572627926</v>
       </c>
       <c r="E85">
-        <v>-0.02198025462016851</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0003152288346429632</v>
+      </c>
+      <c r="F85">
+        <v>0.07223412934464045</v>
+      </c>
+      <c r="G85">
+        <v>-0.02079219474447428</v>
+      </c>
+      <c r="H85">
+        <v>0.002614307215043515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01609536487012603</v>
+        <v>0.01272257266857477</v>
       </c>
       <c r="C86">
-        <v>0.01460851570253125</v>
+        <v>-0.03510913750914251</v>
       </c>
       <c r="D86">
-        <v>-0.0843608134175937</v>
+        <v>-0.1037950334543652</v>
       </c>
       <c r="E86">
-        <v>-0.05574804162921329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0199895579805466</v>
+      </c>
+      <c r="F86">
+        <v>-0.002997950876558997</v>
+      </c>
+      <c r="G86">
+        <v>0.01985205767865375</v>
+      </c>
+      <c r="H86">
+        <v>-0.0207209795919824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02061673753204438</v>
+        <v>0.0129438735463761</v>
       </c>
       <c r="C87">
-        <v>0.02712087504149537</v>
+        <v>-0.06060631216760429</v>
       </c>
       <c r="D87">
-        <v>-0.130402797729173</v>
+        <v>-0.1404166520990469</v>
       </c>
       <c r="E87">
-        <v>-0.05814870620798826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.01736730630084496</v>
+      </c>
+      <c r="F87">
+        <v>0.03968584872841797</v>
+      </c>
+      <c r="G87">
+        <v>-0.04527014425532817</v>
+      </c>
+      <c r="H87">
+        <v>-0.05350628394173169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05154462627330873</v>
+        <v>0.03215332312899099</v>
       </c>
       <c r="C88">
-        <v>0.04543045947509304</v>
+        <v>-0.06869654691905776</v>
       </c>
       <c r="D88">
-        <v>-0.02868509039350545</v>
+        <v>-0.01584919550213556</v>
       </c>
       <c r="E88">
-        <v>-0.03237578812472773</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02856512748050163</v>
+      </c>
+      <c r="F88">
+        <v>0.02029507046001325</v>
+      </c>
+      <c r="G88">
+        <v>0.01425505229688965</v>
+      </c>
+      <c r="H88">
+        <v>-0.01385444213007097</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3281346591703664</v>
+        <v>0.4093387985922113</v>
       </c>
       <c r="C89">
-        <v>-0.320560536882528</v>
+        <v>0.1483646786462537</v>
       </c>
       <c r="D89">
-        <v>-0.005751406462108909</v>
+        <v>-0.02975362159399291</v>
       </c>
       <c r="E89">
-        <v>-0.1003078212677686</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05182832078971004</v>
+      </c>
+      <c r="F89">
+        <v>0.06623855360590708</v>
+      </c>
+      <c r="G89">
+        <v>-0.01132009855431716</v>
+      </c>
+      <c r="H89">
+        <v>-0.1176821023691099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2602969666360059</v>
+        <v>0.3220477881464714</v>
       </c>
       <c r="C90">
-        <v>-0.2335064350853523</v>
+        <v>0.1006058538507479</v>
       </c>
       <c r="D90">
-        <v>-0.04227455119765883</v>
+        <v>-0.03743195330633241</v>
       </c>
       <c r="E90">
-        <v>0.009909987166628449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.009996528428735918</v>
+      </c>
+      <c r="F90">
+        <v>-0.008263782801563356</v>
+      </c>
+      <c r="G90">
+        <v>-0.06617111163109185</v>
+      </c>
+      <c r="H90">
+        <v>0.008047004702513256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1510999154112386</v>
+        <v>0.06417714813145636</v>
       </c>
       <c r="C91">
-        <v>0.1889155657407266</v>
+        <v>-0.2085768312221431</v>
       </c>
       <c r="D91">
-        <v>0.09730750068429921</v>
+        <v>0.1082507825541746</v>
       </c>
       <c r="E91">
-        <v>-0.08186210576289987</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05918630115000982</v>
+      </c>
+      <c r="F91">
+        <v>0.0699304762816465</v>
+      </c>
+      <c r="G91">
+        <v>-0.004106823401664522</v>
+      </c>
+      <c r="H91">
+        <v>0.0009084572640702551</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2460425460622233</v>
+        <v>0.3402197391349772</v>
       </c>
       <c r="C92">
-        <v>-0.2556910617487557</v>
+        <v>0.136908047149433</v>
       </c>
       <c r="D92">
-        <v>0.05538193340069535</v>
+        <v>-0.005571478339054705</v>
       </c>
       <c r="E92">
-        <v>-0.04132010038534834</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0623117138569686</v>
+      </c>
+      <c r="F92">
+        <v>0.03078536923506032</v>
+      </c>
+      <c r="G92">
+        <v>-0.03194338829638274</v>
+      </c>
+      <c r="H92">
+        <v>-0.01802684762398607</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2866115045383855</v>
+        <v>0.3365760993255404</v>
       </c>
       <c r="C93">
-        <v>-0.2446174802735953</v>
+        <v>0.1091459107861256</v>
       </c>
       <c r="D93">
-        <v>-0.01432522103572175</v>
+        <v>0.01842713877987904</v>
       </c>
       <c r="E93">
-        <v>7.101757798050063e-06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0260991142041773</v>
+      </c>
+      <c r="F93">
+        <v>0.006712618547981585</v>
+      </c>
+      <c r="G93">
+        <v>0.01616584765381755</v>
+      </c>
+      <c r="H93">
+        <v>0.006443035539195922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2847543513808398</v>
+        <v>0.1204107943168731</v>
       </c>
       <c r="C94">
-        <v>0.2781735053267743</v>
+        <v>-0.346836805489946</v>
       </c>
       <c r="D94">
-        <v>0.3301947332830331</v>
+        <v>0.3592065722681074</v>
       </c>
       <c r="E94">
-        <v>0.2331134025500216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06587576036055216</v>
+      </c>
+      <c r="F94">
+        <v>-0.1074641824590403</v>
+      </c>
+      <c r="G94">
+        <v>-0.330248493887175</v>
+      </c>
+      <c r="H94">
+        <v>0.02760679265978056</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01243614142397784</v>
+        <v>0.01735841658291233</v>
       </c>
       <c r="C95">
-        <v>0.03847350943557108</v>
+        <v>-0.06497106230143808</v>
       </c>
       <c r="D95">
-        <v>0.003164998043309215</v>
+        <v>-0.1016811553177101</v>
       </c>
       <c r="E95">
-        <v>-0.09017587254522637</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1590641742610503</v>
+      </c>
+      <c r="F95">
+        <v>-0.01557367636165121</v>
+      </c>
+      <c r="G95">
+        <v>0.09453253986946335</v>
+      </c>
+      <c r="H95">
+        <v>-0.3303885591960506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001227626526750967</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0007149384141088685</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.000471481263699994</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003790344841294912</v>
+      </c>
+      <c r="F97">
+        <v>0.0003277698253852574</v>
+      </c>
+      <c r="G97">
+        <v>-0.0005404820439674865</v>
+      </c>
+      <c r="H97">
+        <v>-0.003960434100896297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.143181285072894</v>
+        <v>0.1133967468449043</v>
       </c>
       <c r="C98">
-        <v>0.09281219616089699</v>
+        <v>-0.1558992513830655</v>
       </c>
       <c r="D98">
-        <v>-0.1640522554438837</v>
+        <v>-0.06017852760024664</v>
       </c>
       <c r="E98">
-        <v>0.1851204142132633</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1984981290984</v>
+      </c>
+      <c r="F98">
+        <v>-0.2459357522586278</v>
+      </c>
+      <c r="G98">
+        <v>0.2744840860396049</v>
+      </c>
+      <c r="H98">
+        <v>0.1977897505964179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001509818933147373</v>
+        <v>0.0008654776564293948</v>
       </c>
       <c r="C101">
-        <v>0.0200457309556957</v>
+        <v>-0.03615920515849266</v>
       </c>
       <c r="D101">
-        <v>-0.09488014588182951</v>
+        <v>-0.1018608124240194</v>
       </c>
       <c r="E101">
-        <v>-0.02444934366804016</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05956980204075159</v>
+      </c>
+      <c r="F101">
+        <v>0.0399535946779661</v>
+      </c>
+      <c r="G101">
+        <v>0.01310193364569267</v>
+      </c>
+      <c r="H101">
+        <v>-0.1373875105654998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1023296129580759</v>
+        <v>0.02658217472006011</v>
       </c>
       <c r="C102">
-        <v>0.1609621970711561</v>
+        <v>-0.1486418480978437</v>
       </c>
       <c r="D102">
-        <v>0.06206855003256973</v>
+        <v>0.09851288410388782</v>
       </c>
       <c r="E102">
-        <v>0.05541534921460668</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03883676632572771</v>
+      </c>
+      <c r="F102">
+        <v>-0.06423700231868198</v>
+      </c>
+      <c r="G102">
+        <v>0.008038937837044234</v>
+      </c>
+      <c r="H102">
+        <v>-0.04672793117330543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
